--- a/Assignment_3/AT_Command_Variants.xlsx
+++ b/Assignment_3/AT_Command_Variants.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AT_Assignments\Assignment_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FB9678-3397-4C68-BA6F-9101266E223F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EF3A48-A92D-4E43-BEF0-E21CA77E4F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,64 +20,239 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
-  <si>
-    <t>Command</t>
-  </si>
-  <si>
-    <t>Test Variant (AT+CMD=?)</t>
-  </si>
-  <si>
-    <t>Read Variant (AT+CMD?)</t>
-  </si>
-  <si>
-    <t>Write Variant (AT+CMD=&lt;val&gt;)</t>
-  </si>
-  <si>
-    <t>Remarks / Example</t>
-  </si>
-  <si>
-    <t>AT+CSQ</t>
-  </si>
-  <si>
-    <t>AT+CPIN</t>
-  </si>
-  <si>
-    <t>AT+CMGF</t>
-  </si>
-  <si>
-    <t>AT+COPS</t>
-  </si>
-  <si>
-    <t>AT+CFUN</t>
-  </si>
-  <si>
-    <t>✅ Supported</t>
-  </si>
-  <si>
-    <t>❌ Not Supported</t>
-  </si>
-  <si>
-    <t>Signal strength read: +CSQ: 21,0</t>
-  </si>
-  <si>
-    <t>SIM status: +CPIN: READY</t>
-  </si>
-  <si>
-    <t>Set SMS mode: AT+CMGF=1</t>
-  </si>
-  <si>
-    <t>Operator scan or manual select</t>
-  </si>
-  <si>
-    <t>Set phone mode: AT+CFUN=1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+  <si>
+    <t>AT Command</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Example Response</t>
+  </si>
+  <si>
+    <t>AT+CPIN=?</t>
+  </si>
+  <si>
+    <t>Query supported SIM PINs</t>
+  </si>
+  <si>
+    <t>+CPIN: ("READY","SIM PIN","PUK")</t>
+  </si>
+  <si>
+    <t>AT+CSQ=?</t>
+  </si>
+  <si>
+    <t>Query signal quality range</t>
+  </si>
+  <si>
+    <t>+CSQ: (0-31,99),(0-7,99)</t>
+  </si>
+  <si>
+    <t>AT+CMGF=?</t>
+  </si>
+  <si>
+    <t>Query supported SMS modes</t>
+  </si>
+  <si>
+    <t>+CMGF: (0,1)</t>
+  </si>
+  <si>
+    <t>AT+CLIP=?</t>
+  </si>
+  <si>
+    <t>Query support for CLI presentation</t>
+  </si>
+  <si>
+    <t>+CLIP: (0,1)</t>
+  </si>
+  <si>
+    <t>AT+CNMI=?</t>
+  </si>
+  <si>
+    <t>Query supported SMS indication modes</t>
+  </si>
+  <si>
+    <t>+CNMI: (0-3),(0-3),(0-2),(0-1),(0-1)</t>
+  </si>
+  <si>
+    <t>Typical Response</t>
+  </si>
+  <si>
+    <t>AT+CPIN?</t>
+  </si>
+  <si>
+    <t>Check SIM card status</t>
+  </si>
+  <si>
+    <t>+CPIN: READY</t>
+  </si>
+  <si>
+    <t>AT+CSQ?</t>
+  </si>
+  <si>
+    <t>Check signal quality</t>
+  </si>
+  <si>
+    <t>+CSQ: 21,0</t>
+  </si>
+  <si>
+    <t>AT+COPS?</t>
+  </si>
+  <si>
+    <t>Get current network operator</t>
+  </si>
+  <si>
+    <t>+COPS: 0,0,"Airtel",7</t>
+  </si>
+  <si>
+    <t>AT+CREG?</t>
+  </si>
+  <si>
+    <t>Get network registration status</t>
+  </si>
+  <si>
+    <t>+CREG: 0,1</t>
+  </si>
+  <si>
+    <t>AT+CGATT?</t>
+  </si>
+  <si>
+    <t>Check if GPRS is attached</t>
+  </si>
+  <si>
+    <t>+CGATT: 1</t>
+  </si>
+  <si>
+    <t>Example Usage</t>
+  </si>
+  <si>
+    <t>AT+CMGF=</t>
+  </si>
+  <si>
+    <t>Set SMS mode (Text or PDU)</t>
+  </si>
+  <si>
+    <r>
+      <t>AT+CMGF=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (text mode)</t>
+    </r>
+  </si>
+  <si>
+    <t>AT+CPIN=</t>
+  </si>
+  <si>
+    <t>Enter SIM PIN</t>
+  </si>
+  <si>
+    <t>AT+CPIN="1234"</t>
+  </si>
+  <si>
+    <t>AT+CNMI=</t>
+  </si>
+  <si>
+    <t>Configure new SMS message indications</t>
+  </si>
+  <si>
+    <t>AT+CNMI=2,1,0,0,0</t>
+  </si>
+  <si>
+    <t>AT+CMGS=</t>
+  </si>
+  <si>
+    <t>Send SMS message</t>
+  </si>
+  <si>
+    <t>AT+CMGS="+919999999999"</t>
+  </si>
+  <si>
+    <t>AT+CLIP=</t>
+  </si>
+  <si>
+    <t>Enable or disable caller ID presentation</t>
+  </si>
+  <si>
+    <t>AT+CLIP=1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 AT Commands Supporting </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>AT+CMD=?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Test Syntax)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 AT Commands Supporting </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>AT+CMD?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 AT Commands Supporting </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>AT+CMD=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Write Syntax)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,17 +261,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,13 +315,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,124 +636,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A18" sqref="A18:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" customWidth="1"/>
-    <col min="5" max="5" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A17:C17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
